--- a/00_はじめてのエクセル.xlsx
+++ b/00_はじめてのエクセル.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="演算子" sheetId="2" r:id="rId1"/>
-    <sheet name="はじめてのエクセル" sheetId="5" r:id="rId2"/>
+    <sheet name="はじめてのエクセル" sheetId="5" r:id="rId1"/>
+    <sheet name="演算子" sheetId="2" r:id="rId2"/>
+    <sheet name="はじめてのエクセル (2)" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="116">
   <si>
     <t>Java を学習する中でふとした時に見返すことができるように、演算子の結合規則と優先順位についてまとめてみました。</t>
   </si>
@@ -267,12 +268,336 @@
     <t>Last updated at 2021-08-10</t>
     <phoneticPr fontId="23"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>演算子の結合規則と優先順位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Java)</t>
+    </r>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>会議予定</t>
+    <rPh sb="0" eb="2">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>←文字列は左揃え</t>
+    <rPh sb="1" eb="4">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒダリソロ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>←筋は右揃え</t>
+    <rPh sb="1" eb="2">
+      <t>スジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミギソロ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>練習</t>
+    <rPh sb="0" eb="2">
+      <t>レンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>↓：1つ上のセルの内容をコピーCtrl+D</t>
+    <rPh sb="4" eb="5">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>→左隣のセルの内容をコピーCtrl+R</t>
+    <rPh sb="1" eb="2">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トナリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>営業1課</t>
+    <rPh sb="0" eb="2">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>営業2課</t>
+    <rPh sb="0" eb="2">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>営業3課</t>
+    <rPh sb="0" eb="2">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>営業4課</t>
+    <rPh sb="0" eb="2">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>日</t>
+    <rPh sb="0" eb="1">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>商品A</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>商品B</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>商品C</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>商品D</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>仕入数</t>
+    <rPh sb="0" eb="2">
+      <t>シイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>売上数</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>在庫数</t>
+    <rPh sb="0" eb="3">
+      <t>ザイコスウ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>↓参照　「日」を入力し、下方向にオートフィル</t>
+    <rPh sb="1" eb="3">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>シタホウコウ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>午前</t>
+    <rPh sb="0" eb="2">
+      <t>ゴゼン</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>午後</t>
+    <rPh sb="0" eb="2">
+      <t>ゴゴ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>福岡出張</t>
+    <rPh sb="0" eb="2">
+      <t>フクオカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュッチョウ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>会議</t>
+    <rPh sb="0" eb="2">
+      <t>カイギ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>●平日シフト</t>
+    <rPh sb="1" eb="3">
+      <t>ヘイジツ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>曜日</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>●休日シフト</t>
+    <rPh sb="1" eb="3">
+      <t>キュウジツ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>水</t>
+    <rPh sb="0" eb="1">
+      <t>スイ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>金</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>田中</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>清水</t>
+    <rPh sb="0" eb="2">
+      <t>シミズ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>近藤</t>
+    <rPh sb="0" eb="2">
+      <t>コンドウ</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>山本</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマモト</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>土</t>
+    <rPh sb="0" eb="1">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,6 +805,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -912,7 +1244,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -931,6 +1263,12 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -940,10 +1278,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1004,6 +1339,92 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>31</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>634080</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>26905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2011680" y="4572031"/>
+          <a:ext cx="5328000" cy="3684474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>31</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>634080</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>26905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2011680" y="4572031"/>
+          <a:ext cx="5328000" cy="3684474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1303,11 +1724,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:N44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <f>10+20</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" t="s">
+        <v>101</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <v>65</v>
+      </c>
+      <c r="J11">
+        <f>H11-I11</f>
+        <v>35</v>
+      </c>
+      <c r="L11" s="11">
+        <v>45017</v>
+      </c>
+      <c r="M11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>95</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:J14" si="0">H12-I12</f>
+        <v>5</v>
+      </c>
+      <c r="L12" s="11">
+        <v>45018</v>
+      </c>
+      <c r="N12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13">
+        <v>120</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="L13" s="11">
+        <v>45019</v>
+      </c>
+      <c r="M13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14">
+        <v>150</v>
+      </c>
+      <c r="I14">
+        <v>95</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" t="str">
+        <f>A41</f>
+        <v>曜日</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" ref="F41:G41" si="1">B41</f>
+        <v>午前</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>午後</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" t="s">
+        <v>111</v>
+      </c>
+      <c r="G43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="23"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.45"/>
@@ -1337,21 +2070,23 @@
       <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="A7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
@@ -1371,10 +2106,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="6">
+      <c r="A10" s="8">
         <v>1</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1385,8 +2120,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1395,8 +2130,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
@@ -1405,8 +2140,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
@@ -1415,8 +2150,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
@@ -1425,10 +2160,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="6">
+      <c r="A15" s="8">
         <v>2</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1439,8 +2174,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="4" t="s">
         <v>18</v>
       </c>
@@ -1449,8 +2184,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="4" t="s">
         <v>19</v>
       </c>
@@ -1459,8 +2194,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="4" t="s">
         <v>20</v>
       </c>
@@ -1469,8 +2204,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="4" t="s">
         <v>21</v>
       </c>
@@ -1479,8 +2214,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="4" t="s">
         <v>22</v>
       </c>
@@ -1489,10 +2224,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="6">
+      <c r="A21" s="8">
         <v>3</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1503,8 +2238,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="4" t="s">
         <v>30</v>
       </c>
@@ -1513,10 +2248,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="6">
+      <c r="A23" s="8">
         <v>4</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -1527,8 +2262,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="4" t="s">
         <v>34</v>
       </c>
@@ -1537,8 +2272,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="4" t="s">
         <v>35</v>
       </c>
@@ -1547,10 +2282,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" s="6">
+      <c r="A26" s="8">
         <v>5</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -1561,8 +2296,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="4" t="s">
         <v>39</v>
       </c>
@@ -1571,32 +2306,32 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" s="6">
+      <c r="A28" s="8">
         <v>6</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" s="6">
+      <c r="A30" s="8">
         <v>7</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -1607,8 +2342,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="4" t="s">
         <v>46</v>
       </c>
@@ -1617,8 +2352,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="4" t="s">
         <v>47</v>
       </c>
@@ -1627,26 +2362,26 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" s="6">
+      <c r="A33" s="8">
         <v>8</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="4">
@@ -1733,10 +2468,10 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A41" s="6">
+      <c r="A41" s="8">
         <v>15</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -1747,8 +2482,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
       <c r="C42" s="4" t="s">
         <v>67</v>
       </c>
@@ -1757,8 +2492,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
       <c r="C43" s="4" t="s">
         <v>68</v>
       </c>
@@ -1778,25 +2513,15 @@
       <c r="A46" s="2"/>
     </row>
     <row r="47" spans="1:4" ht="50.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A5:D5"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="A30:A32"/>
@@ -1804,12 +2529,22 @@
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A5:D5"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B20"/>
   </mergeCells>
   <phoneticPr fontId="23"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1817,17 +2552,310 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <f>10+20</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" t="s">
+        <v>101</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <v>65</v>
+      </c>
+      <c r="J11">
+        <f>H11-I11</f>
+        <v>35</v>
+      </c>
+      <c r="L11" s="11">
+        <v>45017</v>
+      </c>
+      <c r="M11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>95</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:J14" si="0">H12-I12</f>
+        <v>5</v>
+      </c>
+      <c r="L12" s="11">
+        <v>45018</v>
+      </c>
+      <c r="N12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13">
+        <v>120</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="L13" s="11">
+        <v>45019</v>
+      </c>
+      <c r="M13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14">
+        <v>150</v>
+      </c>
+      <c r="I14">
+        <v>95</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" t="str">
+        <f>A41</f>
+        <v>曜日</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" ref="F41:G41" si="1">B41</f>
+        <v>午前</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>午後</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" t="s">
+        <v>111</v>
+      </c>
+      <c r="G43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="23"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>